--- a/biology/Microbiologie/Dose_minimale_infectante/Dose_minimale_infectante.xlsx
+++ b/biology/Microbiologie/Dose_minimale_infectante/Dose_minimale_infectante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion de dose minimale infectante (DMI) a été utilisée traditionnellement pour les bactéries contaminant les aliments qui provoquent une infection dans ou à partir du tube digestif. La DMI était définie comme la quantité de bactéries ingérées (la dose) à partir de laquelle une pathologie est observée chez le consommateur.
 On trouve ainsi dans les manuels des exemples comme celui-ci :
@@ -516,7 +528,9 @@
           <t>Relation dose-effet et relation dose-réponse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion de relation dose-réponse s’est imposée avec le développement à partir de 1995 d’une discipline scientifique nouvelle dans le domaine de la sécurité sanitaire des aliments, l’appréciation quantitative des risques.
 Une bactérie infectieuse présente dans un aliment peut causer des troubles de santé : diarrhée, vomissement, septicémie, méningite, avortement, maladie de Guillain-Barré, décès, etc. Quand la dose augmente, la gravité des effets pathologiques augmente, et on peut souvent établir une « relation dose-effet ». Par exemple, plus la dose de Salmonella augmente plus la diarrhée survient tôt après ingestion et plus elle est éprouvante.
@@ -551,7 +565,9 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’existence de cette relation a une première conséquence importante : le facteur de proportionnalité, symbolisé par la lettre r, correspond précisément à la probabilité de l’effet considéré quand la dose est égale à une cellule bactérienne. Il en résulte que la dose minimale infectante est exactement égale à une cellule bactérienne : on est loin de la notion traditionnelle rappelée au début de cet article.
 La proportionnalité a une deuxième conséquence, qui saute aux yeux : quand la dose est divisée par dix, la probabilité d’observer l’effet considéré est lui aussi divisé par dix.
@@ -586,9 +602,11 @@
           <t>Comparaisons</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pour comparer entre elles les relations dose-réponse pour différents effets provoqués par une même bactérie, ou pour le même effet provoqué par différentes bactéries, on peut bien entendu comparer directement les valeurs de r. Toutefois, l’expérience montre qu’il peut être plus facile pour l’esprit de comparer les doses causant l’effet considéré chez 50 % ou chez 1 % des consommateurs. Voici quelques valeurs de D1 (dose provoquant l’effet considéré chez 1 % des consommateurs exposés au danger considéré) [1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pour comparer entre elles les relations dose-réponse pour différents effets provoqués par une même bactérie, ou pour le même effet provoqué par différentes bactéries, on peut bien entendu comparer directement les valeurs de r. Toutefois, l’expérience montre qu’il peut être plus facile pour l’esprit de comparer les doses causant l’effet considéré chez 50 % ou chez 1 % des consommateurs. Voici quelques valeurs de D1 (dose provoquant l’effet considéré chez 1 % des consommateurs exposés au danger considéré)  :
 Escherichia coli EHEC, syndrome hémolytique et urémique chez les enfants de moins de 6 ans : 8,4 cellules bactériennes ;
 Escherichia coli EHEC, syndrome hémolytique et urémique chez les enfants de 6 à 14 ans : 41,9 cellules bactériennes ;
 Listeria monocytogenes, listériose grave dans la population générale : 4,2 × 1011 cellules bactériennes ;
@@ -623,7 +641,9 @@
           <t>Gestion du risque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut avoir l’impression que, si la contamination des aliments par une bactérie pathogène est faible et peu fréquente, le risque de tomber malade est tel qu'il n’y aura pas de problème de santé publique. Une telle vue est incomplète : certes, le fait de consommer une dose faible de cette bactérie est associé à une probabilité faible de maladie. Mais cette probabilité n’est pas nulle. C’est ce qui explique les cas sporadiques que l’on observe dans la population. Et c'est aussi ce qui explique qu'il n'existe pas de concentration en dessous de laquelle il n'y aura pas d'épidémie.
 </t>
@@ -654,7 +674,9 @@
           <t>Bactéries toxinogènes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était question dans ce qui précède de bactéries contaminant les aliments qui provoquent une infection dans ou à partir du tube digestif. D’autres bactéries transmises par les aliments peuvent causer des maladies en produisant des toxines. Il ne s’agit plus d’infection, mais d’intoxination. Parmi ces bactéries, certaines ne synthétisent une toxine que quand leur concentration dans l’aliment avant son ingestion dépasse un seuil. On dit qu’elles sont sensibles au quorum. C’est le cas de Staphylococcus aureus et de Bacillus cereus, par exemple. La notion de DMI ne s’applique pas à elles, mais il existe bien une concentration (non une dose) en dessous de laquelle elle ne constituent pas un danger pour la santé du consommateur.
 </t>
